--- a/output/BayesTheo0.5SymmetCitptile0.9alpha0.05power0.8N1000/BayesTheo0.5SymmetCitptile0.9alpha0.05power0.8N1000N1000.xlsx
+++ b/output/BayesTheo0.5SymmetCitptile0.9alpha0.05power0.8N1000/BayesTheo0.5SymmetCitptile0.9alpha0.05power0.8N1000N1000.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lewan\Documents\MATLAB\Modeling\Replication market\output\BayesTheo0.5SymmetCitptile0.9alpha0.05power0.8N1000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C227A3C-2EDF-4D6F-AC71-D25C2CB74969}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075A4B23-C300-41FA-B787-C3CD683090DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="2250" windowWidth="21600" windowHeight="12735" xr2:uid="{F9893E18-91E2-4144-9AED-8447B9F59F42}"/>
+    <workbookView xWindow="1152" yWindow="6684" windowWidth="27060" windowHeight="10800" xr2:uid="{571726AD-E695-4FFC-B074-D07F751F310D}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="4" r:id="rId1"/>
@@ -466,31 +466,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F535A793-C15A-4A4A-8563-D630A1A66822}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCDD97D-F9A1-430E-86D6-9799143FA315}">
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -537,7 +537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -545,46 +545,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.5022735640574555E-2</v>
+        <v>5.8934129552828139E-2</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>8.1479999999999997</v>
+        <v>8.1829999999999998</v>
       </c>
       <c r="F2">
-        <v>176.76400000000001</v>
+        <v>177.04</v>
       </c>
       <c r="G2">
-        <v>59.44</v>
+        <v>59.494999999999997</v>
       </c>
       <c r="H2">
-        <v>8.1080000000000005</v>
+        <v>8.2579999999999991</v>
       </c>
       <c r="I2">
-        <v>8.0540000000000003</v>
+        <v>8.1690000000000005</v>
       </c>
       <c r="J2">
-        <v>5.5220041741936517E-2</v>
+        <v>5.6840287333225728E-2</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>76.763999999999996</v>
+        <v>77.040000000000006</v>
       </c>
       <c r="M2">
-        <v>176.76400000000001</v>
+        <v>177.04</v>
       </c>
       <c r="N2">
-        <v>8.516</v>
+        <v>8.7750000000000004</v>
       </c>
       <c r="O2">
-        <v>8.1240000000000006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>7.9509999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -592,7 +592,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5.5684389545361083E-2</v>
+        <v>5.5870190567779733E-2</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -601,37 +601,37 @@
         <v>8.1649999999999991</v>
       </c>
       <c r="F3">
-        <v>176.87</v>
+        <v>176.99600000000001</v>
       </c>
       <c r="G3">
-        <v>59.515999999999998</v>
+        <v>59.585000000000001</v>
       </c>
       <c r="H3">
-        <v>6.024</v>
+        <v>5.9660000000000002</v>
       </c>
       <c r="I3">
-        <v>6.0309999999999997</v>
+        <v>6.0289999999999999</v>
       </c>
       <c r="J3">
-        <v>5.3060428849902537E-2</v>
+        <v>5.6112421383647824E-2</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>76.87</v>
+        <v>76.995999999999995</v>
       </c>
       <c r="M3">
-        <v>107.791</v>
+        <v>107.804</v>
       </c>
       <c r="N3">
-        <v>5.9950000000000001</v>
+        <v>5.9989999999999997</v>
       </c>
       <c r="O3">
-        <v>5.899</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5.8949999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -639,46 +639,46 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>5.7344727839554875E-2</v>
+        <v>5.982393527005575E-2</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>8.1940000000000008</v>
+        <v>8.1980000000000004</v>
       </c>
       <c r="F4">
-        <v>176.76400000000001</v>
+        <v>177.44399999999999</v>
       </c>
       <c r="G4">
-        <v>59.314999999999998</v>
+        <v>59.954000000000001</v>
       </c>
       <c r="H4">
-        <v>8.7509999999999994</v>
+        <v>8.4979999999999993</v>
       </c>
       <c r="I4">
-        <v>7.7510000000000003</v>
+        <v>8.2210000000000001</v>
       </c>
       <c r="J4">
-        <v>5.363270938324937E-2</v>
+        <v>5.5323930296756411E-2</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>76.763999999999996</v>
+        <v>77.444000000000003</v>
       </c>
       <c r="M4">
-        <v>110.995</v>
+        <v>111.238</v>
       </c>
       <c r="N4">
-        <v>8.4879999999999995</v>
+        <v>8.7579999999999991</v>
       </c>
       <c r="O4">
-        <v>8.3320000000000007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.6080000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -686,46 +686,46 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>5.6382074490333854E-2</v>
+        <v>5.5212827574591096E-2</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>8.1969999999999992</v>
+        <v>8.1720000000000006</v>
       </c>
       <c r="F5">
-        <v>176.87</v>
+        <v>176.892</v>
       </c>
       <c r="G5">
-        <v>59.418999999999997</v>
+        <v>59.442</v>
       </c>
       <c r="H5">
-        <v>14.494</v>
+        <v>14.698</v>
       </c>
       <c r="I5">
-        <v>13.262</v>
+        <v>14.605</v>
       </c>
       <c r="J5">
-        <v>5.4738062910160729E-2</v>
+        <v>6.0893562162597781E-2</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>76.87</v>
+        <v>76.891999999999996</v>
       </c>
       <c r="M5">
-        <v>118.083</v>
+        <v>118.312</v>
       </c>
       <c r="N5">
-        <v>14.05</v>
+        <v>14.13</v>
       </c>
       <c r="O5">
-        <v>13.821</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>13.874000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -733,46 +733,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.2975178640145846E-2</v>
+        <v>6.3246119848193658E-2</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>8.1769999999999996</v>
+        <v>8.1660000000000004</v>
       </c>
       <c r="F6">
-        <v>178.73599999999999</v>
+        <v>178.80199999999999</v>
       </c>
       <c r="G6">
-        <v>62.131</v>
+        <v>62.167999999999999</v>
       </c>
       <c r="H6">
-        <v>9.44</v>
+        <v>9.202</v>
       </c>
       <c r="I6">
-        <v>8.6760000000000002</v>
+        <v>9.2409999999999997</v>
       </c>
       <c r="J6">
-        <v>5.8851083301688117E-2</v>
+        <v>6.0581038941042969E-2</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>78.736000000000004</v>
+        <v>78.802000000000007</v>
       </c>
       <c r="M6">
-        <v>178.73599999999999</v>
+        <v>178.80199999999999</v>
       </c>
       <c r="N6">
-        <v>9.1270000000000007</v>
+        <v>8.8010000000000002</v>
       </c>
       <c r="O6">
-        <v>8.7189999999999994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.7080000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -780,46 +780,46 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>6.0969763327675633E-2</v>
+        <v>5.9550768035300447E-2</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>8.1630000000000003</v>
+        <v>8.1880000000000006</v>
       </c>
       <c r="F7">
-        <v>178.69</v>
+        <v>178.816</v>
       </c>
       <c r="G7">
-        <v>62.197000000000003</v>
+        <v>62.234999999999999</v>
       </c>
       <c r="H7">
-        <v>6.3220000000000001</v>
+        <v>6.2560000000000002</v>
       </c>
       <c r="I7">
-        <v>6.2910000000000004</v>
+        <v>6.1840000000000002</v>
       </c>
       <c r="J7">
-        <v>5.5815627339206572E-2</v>
+        <v>5.9815524809690511E-2</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>78.69</v>
+        <v>78.816000000000003</v>
       </c>
       <c r="M7">
-        <v>107.947</v>
+        <v>108.05800000000001</v>
       </c>
       <c r="N7">
-        <v>6.2779999999999996</v>
+        <v>6.3070000000000004</v>
       </c>
       <c r="O7">
-        <v>6.1740000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -827,46 +827,46 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>6.0848673373989706E-2</v>
+        <v>5.975708011738326E-2</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>8.1869999999999994</v>
+        <v>8.1829999999999998</v>
       </c>
       <c r="F8">
-        <v>178.72</v>
+        <v>179.001</v>
       </c>
       <c r="G8">
-        <v>61.975999999999999</v>
+        <v>62.570999999999998</v>
       </c>
       <c r="H8">
-        <v>8.9250000000000007</v>
+        <v>9.2059999999999995</v>
       </c>
       <c r="I8">
-        <v>8.4139999999999997</v>
+        <v>8.9939999999999998</v>
       </c>
       <c r="J8">
-        <v>6.5080230565508698E-2</v>
+        <v>6.2505098399102718E-2</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>78.72</v>
+        <v>79.001000000000005</v>
       </c>
       <c r="M8">
-        <v>111.33</v>
+        <v>111.351</v>
       </c>
       <c r="N8">
-        <v>8.9749999999999996</v>
+        <v>9.0050000000000008</v>
       </c>
       <c r="O8">
-        <v>8.8049999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.8490000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -874,46 +874,46 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>6.1014630161967683E-2</v>
+        <v>6.2682412621568956E-2</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>8.1820000000000004</v>
+        <v>8.1850000000000005</v>
       </c>
       <c r="F9">
-        <v>178.77</v>
+        <v>178.96799999999999</v>
       </c>
       <c r="G9">
-        <v>62.212000000000003</v>
+        <v>62.49</v>
       </c>
       <c r="H9">
-        <v>15.308999999999999</v>
+        <v>13.95</v>
       </c>
       <c r="I9">
-        <v>14.785</v>
+        <v>13.786</v>
       </c>
       <c r="J9">
-        <v>5.9978740599290037E-2</v>
+        <v>6.2589638224156086E-2</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>78.77</v>
+        <v>78.968000000000004</v>
       </c>
       <c r="M9">
-        <v>118.593</v>
+        <v>118.47799999999999</v>
       </c>
       <c r="N9">
-        <v>14.753</v>
+        <v>14.706</v>
       </c>
       <c r="O9">
-        <v>14.525</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>14.462999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -921,46 +921,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.3377980938963056E-2</v>
+        <v>7.7021250549755366E-2</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>8.1859999999999999</v>
+        <v>8.1880000000000006</v>
       </c>
       <c r="F10">
-        <v>182.03200000000001</v>
+        <v>181.83099999999999</v>
       </c>
       <c r="G10">
-        <v>67.361000000000004</v>
+        <v>67.331000000000003</v>
       </c>
       <c r="H10">
-        <v>9.8130000000000006</v>
+        <v>10.159000000000001</v>
       </c>
       <c r="I10">
-        <v>9.7899999999999991</v>
+        <v>9.5980000000000008</v>
       </c>
       <c r="J10">
-        <v>7.1110233350116944E-2</v>
+        <v>7.753386121473918E-2</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>82.031999999999996</v>
+        <v>81.831000000000003</v>
       </c>
       <c r="M10">
-        <v>182.03200000000001</v>
+        <v>181.83099999999999</v>
       </c>
       <c r="N10">
-        <v>9.8550000000000004</v>
+        <v>9.6</v>
       </c>
       <c r="O10">
-        <v>9.3840000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.5090000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -968,46 +968,46 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>7.5782705263169811E-2</v>
+        <v>7.4941823081680403E-2</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>8.17</v>
+        <v>8.1649999999999991</v>
       </c>
       <c r="F11">
-        <v>181.79499999999999</v>
+        <v>181.982</v>
       </c>
       <c r="G11">
-        <v>67.114000000000004</v>
+        <v>67.355999999999995</v>
       </c>
       <c r="H11">
-        <v>6.7859999999999996</v>
+        <v>6.7229999999999999</v>
       </c>
       <c r="I11">
-        <v>6.5410000000000004</v>
+        <v>6.6580000000000004</v>
       </c>
       <c r="J11">
-        <v>6.3813786384118859E-2</v>
+        <v>6.6916354556804003E-2</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>81.795000000000002</v>
+        <v>81.981999999999999</v>
       </c>
       <c r="M11">
-        <v>108.265</v>
+        <v>108.193</v>
       </c>
       <c r="N11">
-        <v>6.7569999999999997</v>
+        <v>6.7039999999999997</v>
       </c>
       <c r="O11">
-        <v>6.6509999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>6.5990000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1015,46 +1015,46 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>7.276899036747618E-2</v>
+        <v>7.6720915268285547E-2</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>8.1829999999999998</v>
+        <v>8.1639999999999997</v>
       </c>
       <c r="F12">
-        <v>181.803</v>
+        <v>181.97</v>
       </c>
       <c r="G12">
-        <v>66.903999999999996</v>
+        <v>67.313000000000002</v>
       </c>
       <c r="H12">
-        <v>8.952</v>
+        <v>9.8930000000000007</v>
       </c>
       <c r="I12">
-        <v>9.4179999999999993</v>
+        <v>9.4410000000000007</v>
       </c>
       <c r="J12">
-        <v>6.9831684302467167E-2</v>
+        <v>7.1086160216595057E-2</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>81.802999999999997</v>
+        <v>81.97</v>
       </c>
       <c r="M12">
-        <v>111.923</v>
+        <v>111.809</v>
       </c>
       <c r="N12">
-        <v>9.7579999999999991</v>
+        <v>9.7279999999999998</v>
       </c>
       <c r="O12">
-        <v>9.5860000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
@@ -1062,46 +1062,46 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>7.4703262097327874E-2</v>
+        <v>7.5651441163520142E-2</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>8.18</v>
+        <v>8.1959999999999997</v>
       </c>
       <c r="F13">
-        <v>182.14599999999999</v>
+        <v>182.083</v>
       </c>
       <c r="G13">
-        <v>67.369</v>
+        <v>67.587999999999994</v>
       </c>
       <c r="H13">
-        <v>16.193000000000001</v>
+        <v>14.467000000000001</v>
       </c>
       <c r="I13">
-        <v>15.853999999999999</v>
+        <v>15.688000000000001</v>
       </c>
       <c r="J13">
-        <v>7.4061677537475765E-2</v>
+        <v>6.6340536402584069E-2</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>82.146000000000001</v>
+        <v>82.082999999999998</v>
       </c>
       <c r="M13">
-        <v>119.187</v>
+        <v>119.495</v>
       </c>
       <c r="N13">
-        <v>15.773999999999999</v>
+        <v>16.023</v>
       </c>
       <c r="O13">
-        <v>15.494</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15.757999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1109,46 +1109,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.4729124603060835E-2</v>
+        <v>9.2312685920251866E-2</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>8.1959999999999997</v>
+        <v>8.17</v>
       </c>
       <c r="F14">
-        <v>183.49</v>
+        <v>183.559</v>
       </c>
       <c r="G14">
-        <v>69.715000000000003</v>
+        <v>69.885000000000005</v>
       </c>
       <c r="H14">
         <v>9.9499999999999993</v>
       </c>
       <c r="I14">
-        <v>10.132999999999999</v>
+        <v>9.2119999999999997</v>
       </c>
       <c r="J14">
-        <v>9.3940831418884485E-2</v>
+        <v>9.8216019329766396E-2</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>83.49</v>
+        <v>83.558999999999997</v>
       </c>
       <c r="M14">
-        <v>183.49</v>
+        <v>183.559</v>
       </c>
       <c r="N14">
-        <v>10.029</v>
+        <v>9.8490000000000002</v>
       </c>
       <c r="O14">
-        <v>10.179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.5739999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -1156,46 +1156,46 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>9.3922055941348226E-2</v>
+        <v>9.852323196763009E-2</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>8.16</v>
+        <v>8.1750000000000007</v>
       </c>
       <c r="F15">
-        <v>183.33099999999999</v>
+        <v>183.774</v>
       </c>
       <c r="G15">
-        <v>69.501000000000005</v>
+        <v>70.212999999999994</v>
       </c>
       <c r="H15">
-        <v>7.0759999999999996</v>
+        <v>7.0250000000000004</v>
       </c>
       <c r="I15">
-        <v>6.8410000000000002</v>
+        <v>6.9189999999999996</v>
       </c>
       <c r="J15">
-        <v>9.1554134091447581E-2</v>
+        <v>9.0414507772020758E-2</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>83.331000000000003</v>
+        <v>83.774000000000001</v>
       </c>
       <c r="M15">
-        <v>108.312</v>
+        <v>108.449</v>
       </c>
       <c r="N15">
-        <v>6.8940000000000001</v>
+        <v>7.0910000000000002</v>
       </c>
       <c r="O15">
-        <v>6.7510000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>6.9569999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
@@ -1203,46 +1203,46 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>9.6712854175560845E-2</v>
+        <v>9.7316728346395709E-2</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>8.1660000000000004</v>
+        <v>8.1859999999999999</v>
       </c>
       <c r="F16">
-        <v>183.566</v>
+        <v>183.702</v>
       </c>
       <c r="G16">
-        <v>69.929000000000002</v>
+        <v>70.334999999999994</v>
       </c>
       <c r="H16">
-        <v>9.8580000000000005</v>
+        <v>10.711</v>
       </c>
       <c r="I16">
-        <v>9.702</v>
+        <v>9.5660000000000007</v>
       </c>
       <c r="J16">
-        <v>9.2184148434148433E-2</v>
+        <v>8.8766018639871866E-2</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>83.566000000000003</v>
+        <v>83.701999999999998</v>
       </c>
       <c r="M16">
-        <v>111.961</v>
+        <v>111.864</v>
       </c>
       <c r="N16">
-        <v>9.9320000000000004</v>
+        <v>9.9890000000000008</v>
       </c>
       <c r="O16">
-        <v>9.7319999999999993</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10</v>
       </c>
@@ -1250,43 +1250,43 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>8.6341315897374163E-2</v>
+        <v>9.6442058880906983E-2</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>8.1829999999999998</v>
+        <v>8.1709999999999994</v>
       </c>
       <c r="F17">
-        <v>183.52500000000001</v>
+        <v>183.72200000000001</v>
       </c>
       <c r="G17">
-        <v>69.616</v>
+        <v>70.22</v>
       </c>
       <c r="H17">
-        <v>16.390999999999998</v>
+        <v>16.611000000000001</v>
       </c>
       <c r="I17">
-        <v>14.88</v>
+        <v>16.265999999999998</v>
       </c>
       <c r="J17">
-        <v>9.1874330806219429E-2</v>
+        <v>8.3219489981785147E-2</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>83.525000000000006</v>
+        <v>83.721999999999994</v>
       </c>
       <c r="M17">
-        <v>119.56</v>
+        <v>119.923</v>
       </c>
       <c r="N17">
-        <v>16.411000000000001</v>
+        <v>16.658999999999999</v>
       </c>
       <c r="O17">
-        <v>16.088999999999999</v>
+        <v>16.350999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1295,29 +1295,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23A6B67-D0FF-4A9B-A073-DE918F759B23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0E4B8D-04D3-47D1-A555-2E4DCD8CD96D}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1358,7 +1357,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>22.981961046756272</v>
       </c>
